--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
